--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rln3-Rxfp4.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.707449</v>
+        <v>6.755097</v>
       </c>
       <c r="N2">
-        <v>17.122347</v>
+        <v>20.265291</v>
       </c>
       <c r="O2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
       <c r="P2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
       <c r="Q2">
-        <v>6.028297050501</v>
+        <v>7.134839281253</v>
       </c>
       <c r="R2">
-        <v>54.254673454509</v>
+        <v>64.213553531277</v>
       </c>
       <c r="S2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
       <c r="T2">
-        <v>0.3399754611868652</v>
+        <v>0.262181130417721</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>13.91032</v>
       </c>
       <c r="O3">
-        <v>0.2761985525265242</v>
+        <v>0.179964029239562</v>
       </c>
       <c r="P3">
-        <v>0.2761985525265243</v>
+        <v>0.179964029239562</v>
       </c>
       <c r="Q3">
         <v>4.897432637448889</v>
@@ -635,10 +635,10 @@
         <v>44.07689373704</v>
       </c>
       <c r="S3">
-        <v>0.2761985525265242</v>
+        <v>0.179964029239562</v>
       </c>
       <c r="T3">
-        <v>0.2761985525265243</v>
+        <v>0.179964029239562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.100319</v>
+        <v>12.28762933333333</v>
       </c>
       <c r="N4">
-        <v>12.300957</v>
+        <v>36.862888</v>
       </c>
       <c r="O4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
       <c r="P4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
       <c r="Q4">
-        <v>4.330821166131</v>
+        <v>12.97838660805956</v>
       </c>
       <c r="R4">
-        <v>38.977390495179</v>
+        <v>116.805479472536</v>
       </c>
       <c r="S4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
       <c r="T4">
-        <v>0.2442435916708613</v>
+        <v>0.4769116637062769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.343285</v>
+        <v>2.085501</v>
       </c>
       <c r="N5">
-        <v>7.029855</v>
+        <v>6.256503</v>
       </c>
       <c r="O5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644024</v>
       </c>
       <c r="P5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644023</v>
       </c>
       <c r="Q5">
-        <v>2.475014328465</v>
+        <v>2.202738829049</v>
       </c>
       <c r="R5">
-        <v>22.275128956185</v>
+        <v>19.824649461441</v>
       </c>
       <c r="S5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644024</v>
       </c>
       <c r="T5">
-        <v>0.1395823946157492</v>
+        <v>0.08094317663644023</v>
       </c>
     </row>
   </sheetData>
